--- a/assets/PriorTool_Input_Data.xlsx
+++ b/assets/PriorTool_Input_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bencahill/Documents/python_progs/Prioritising_Tool/PriorTool/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B73B0A5-AD6D-7A4C-BB4E-A2BF9A77C3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D877BF-CAD7-2E4C-BEE3-4EE29E80D5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9260" yWindow="2140" windowWidth="28040" windowHeight="17440" xr2:uid="{A8BEBEA9-D1E6-634C-884B-3ACC2F953EB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="20">
   <si>
     <t>Is there Food?</t>
   </si>
@@ -81,6 +81,21 @@
   </si>
   <si>
     <t>How much Innovation is there?</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>Val_For_WBDK</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>Val_For_Member</t>
+  </si>
+  <si>
+    <t>Val_For_Society</t>
   </si>
 </sst>
 </file>
@@ -452,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76784108-58B2-6945-B52F-A78989885E15}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,7 +483,7 @@
     <col min="6" max="6" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -481,8 +496,11 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -495,8 +513,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -509,8 +530,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -523,8 +547,11 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -537,8 +564,11 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -551,8 +581,11 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -565,8 +598,11 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -579,8 +615,11 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -593,228 +632,367 @@
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B30" t="s">
         <v>11</v>
       </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B32" t="s">
         <v>11</v>
       </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>12</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B33" t="s">
         <v>13</v>
       </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B34" t="s">
         <v>14</v>
       </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>12</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B35" t="s">
         <v>13</v>
       </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>12</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B36" t="s">
         <v>14</v>
       </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>12</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B37" t="s">
         <v>13</v>
       </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>12</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B38" t="s">
         <v>14</v>
       </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>12</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B39" t="s">
         <v>13</v>
       </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>12</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B40" t="s">
         <v>14</v>
       </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25">
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40">
         <v>1</v>
       </c>
     </row>

--- a/assets/PriorTool_Input_Data.xlsx
+++ b/assets/PriorTool_Input_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bencahill/Documents/python_progs/Prioritising_Tool/PriorTool/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D877BF-CAD7-2E4C-BEE3-4EE29E80D5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9C32C8-87B5-4B48-8E24-6FAC7549CD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9260" yWindow="2140" windowWidth="28040" windowHeight="17440" xr2:uid="{A8BEBEA9-D1E6-634C-884B-3ACC2F953EB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="20">
   <si>
     <t>Is there Food?</t>
   </si>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76784108-58B2-6945-B52F-A78989885E15}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,228 +772,276 @@
         <v>19</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27">
         <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31">
         <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
+      <c r="E33" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/assets/PriorTool_Input_Data.xlsx
+++ b/assets/PriorTool_Input_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bencahill/Documents/python_progs/Prioritising_Tool/PriorTool/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9C32C8-87B5-4B48-8E24-6FAC7549CD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43D1CBF-F1DB-0346-92ED-4B326A9F8EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9260" yWindow="2140" windowWidth="28040" windowHeight="17440" xr2:uid="{A8BEBEA9-D1E6-634C-884B-3ACC2F953EB0}"/>
+    <workbookView xWindow="6520" yWindow="2140" windowWidth="28040" windowHeight="17440" xr2:uid="{A8BEBEA9-D1E6-634C-884B-3ACC2F953EB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="24">
   <si>
     <t>Is there Food?</t>
   </si>
@@ -86,16 +86,28 @@
     <t>CATEGORY</t>
   </si>
   <si>
-    <t>Val_For_WBDK</t>
-  </si>
-  <si>
     <t>Economy</t>
   </si>
   <si>
-    <t>Val_For_Member</t>
-  </si>
-  <si>
-    <t>Val_For_Society</t>
+    <t>Value For Organisation</t>
+  </si>
+  <si>
+    <t>Value For Member</t>
+  </si>
+  <si>
+    <t>Value For Society</t>
+  </si>
+  <si>
+    <t>Speaker Role?</t>
+  </si>
+  <si>
+    <t>Number of leads expected?</t>
+  </si>
+  <si>
+    <t>Stand or Stagetime?</t>
+  </si>
+  <si>
+    <t>Co-Sender Role?</t>
   </si>
 </sst>
 </file>
@@ -470,7 +482,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,7 +517,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -514,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -522,7 +534,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -531,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -539,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -548,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -556,16 +568,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -573,7 +585,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -582,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -590,7 +602,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -599,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -607,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -616,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -624,16 +636,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -786,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -803,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -820,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -837,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -854,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -871,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -888,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -905,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">

--- a/assets/PriorTool_Input_Data.xlsx
+++ b/assets/PriorTool_Input_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bencahill/Documents/python_progs/Prioritising_Tool/PriorTool/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43D1CBF-F1DB-0346-92ED-4B326A9F8EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AB37BE-D290-ED43-94E3-4E5B95F6E839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6520" yWindow="2140" windowWidth="28040" windowHeight="17440" xr2:uid="{A8BEBEA9-D1E6-634C-884B-3ACC2F953EB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="23">
   <si>
     <t>Is there Food?</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>CATEGORY</t>
-  </si>
-  <si>
-    <t>Economy</t>
   </si>
   <si>
     <t>Value For Organisation</t>
@@ -479,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76784108-58B2-6945-B52F-A78989885E15}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,7 +514,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -534,7 +531,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -551,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -568,7 +565,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -585,7 +582,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -602,7 +599,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -619,7 +616,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -636,10 +633,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -718,10 +715,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -730,15 +727,15 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -747,15 +744,15 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -764,15 +761,15 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -781,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -854,10 +851,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -871,10 +868,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -888,10 +885,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -905,10 +902,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
@@ -986,74 +983,6 @@
       </c>
       <c r="E29" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/assets/PriorTool_Input_Data.xlsx
+++ b/assets/PriorTool_Input_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bencahill/Documents/python_progs/Prioritising_Tool/PriorTool/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AB37BE-D290-ED43-94E3-4E5B95F6E839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A9600D-0191-8A4F-86BC-40DB4B5E2CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="2140" windowWidth="28040" windowHeight="17440" xr2:uid="{A8BEBEA9-D1E6-634C-884B-3ACC2F953EB0}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{A8BEBEA9-D1E6-634C-884B-3ACC2F953EB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="24">
   <si>
     <t>Is there Food?</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Co-Sender Role?</t>
+  </si>
+  <si>
+    <t>Speaker Role For STINUS!?</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,7 +517,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -752,7 +755,7 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>

--- a/assets/PriorTool_Input_Data.xlsx
+++ b/assets/PriorTool_Input_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bencahill/Documents/python_progs/Prioritising_Tool/PriorTool/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A9600D-0191-8A4F-86BC-40DB4B5E2CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F1BCA6-4F07-6342-9516-962AB60379D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{A8BEBEA9-D1E6-634C-884B-3ACC2F953EB0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20620" xr2:uid="{A8BEBEA9-D1E6-634C-884B-3ACC2F953EB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="25">
   <si>
     <t>Is there Food?</t>
   </si>
@@ -98,16 +98,19 @@
     <t>Speaker Role?</t>
   </si>
   <si>
-    <t>Number of leads expected?</t>
-  </si>
-  <si>
     <t>Stand or Stagetime?</t>
   </si>
   <si>
     <t>Co-Sender Role?</t>
   </si>
   <si>
-    <t>Speaker Role For STINUS!?</t>
+    <t>ANOTHER Question</t>
+  </si>
+  <si>
+    <t>Number of SANDIWCHES expected?</t>
+  </si>
+  <si>
+    <t>Is there a relevant network?</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,7 +520,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -534,7 +537,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -551,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -568,7 +571,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -721,7 +724,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
